--- a/public/samples-imports/samples-productos.xlsx
+++ b/public/samples-imports/samples-productos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\posTaller\public\samples-imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>codigo</t>
   </si>
@@ -35,27 +35,12 @@
     <t>cantidad</t>
   </si>
   <si>
-    <t>002523</t>
-  </si>
-  <si>
-    <t>producto 1</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>producto 2</t>
-  </si>
-  <si>
     <t>Servicios</t>
   </si>
   <si>
-    <t>llenado de llanta</t>
-  </si>
-  <si>
     <t>precio_compra</t>
   </si>
   <si>
@@ -66,6 +51,27 @@
   </si>
   <si>
     <t>tipo_producto</t>
+  </si>
+  <si>
+    <t>precio_mayoreo</t>
+  </si>
+  <si>
+    <t>inv_minimo</t>
+  </si>
+  <si>
+    <t>SERV0001</t>
+  </si>
+  <si>
+    <t>Alineacion</t>
+  </si>
+  <si>
+    <t>SERVICIOS</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>ACEITES</t>
   </si>
 </sst>
 </file>
@@ -397,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,88 +419,83 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>325645814</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
+        <v>600</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>23654</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>175</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>695840</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
